--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H2">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I2">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J2">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N2">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O2">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P2">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q2">
-        <v>1.07504406663625</v>
+        <v>2.831549035524</v>
       </c>
       <c r="R2">
-        <v>4.300176266545</v>
+        <v>11.326196142096</v>
       </c>
       <c r="S2">
-        <v>0.004293565682717171</v>
+        <v>0.004324335924862818</v>
       </c>
       <c r="T2">
-        <v>0.002230957752743296</v>
+        <v>0.002329611502615782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H3">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I3">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J3">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.064042</v>
       </c>
       <c r="O3">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P3">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q3">
-        <v>0.3869144569183333</v>
+        <v>1.355278886661333</v>
       </c>
       <c r="R3">
-        <v>2.32148674151</v>
+        <v>8.131673319967998</v>
       </c>
       <c r="S3">
-        <v>0.001545278641060397</v>
+        <v>0.002069779157722805</v>
       </c>
       <c r="T3">
-        <v>0.001204401522829601</v>
+        <v>0.001672550913302977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H4">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I4">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J4">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N4">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O4">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P4">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q4">
-        <v>7.182617763644167</v>
+        <v>29.95085563530133</v>
       </c>
       <c r="R4">
-        <v>43.095706581865</v>
+        <v>179.705133811808</v>
       </c>
       <c r="S4">
-        <v>0.0286863042168596</v>
+        <v>0.04574088577637693</v>
       </c>
       <c r="T4">
-        <v>0.02235831620595637</v>
+        <v>0.03696237832674714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H5">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I5">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J5">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N5">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O5">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P5">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q5">
-        <v>0.12899133199125</v>
+        <v>0.592098588444</v>
       </c>
       <c r="R5">
-        <v>0.5159653279649999</v>
+        <v>2.368394353776</v>
       </c>
       <c r="S5">
-        <v>0.0005151721437229256</v>
+        <v>0.0009042517593537367</v>
       </c>
       <c r="T5">
-        <v>0.0002676859684859173</v>
+        <v>0.0004871396062778935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H6">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I6">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J6">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N6">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O6">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P6">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q6">
-        <v>0.75065123718</v>
+        <v>44.99263193758667</v>
       </c>
       <c r="R6">
-        <v>4.50390742308</v>
+        <v>269.95579162552</v>
       </c>
       <c r="S6">
-        <v>0.002997989098000161</v>
+        <v>0.06871265593528059</v>
       </c>
       <c r="T6">
-        <v>0.00233665472304733</v>
+        <v>0.05552544821567777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H7">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I7">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J7">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N7">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O7">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P7">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q7">
-        <v>8.156318339445832</v>
+        <v>13.67424124463466</v>
       </c>
       <c r="R7">
-        <v>48.937910036675</v>
+        <v>82.045447467808</v>
       </c>
       <c r="S7">
-        <v>0.03257511911035971</v>
+        <v>0.02088327340178719</v>
       </c>
       <c r="T7">
-        <v>0.02538928709708313</v>
+        <v>0.0168753936238026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H8">
         <v>1.915376</v>
       </c>
       <c r="I8">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J8">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N8">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O8">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P8">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q8">
-        <v>1.811830454210667</v>
+        <v>1.362390668104</v>
       </c>
       <c r="R8">
-        <v>10.870982725264</v>
+        <v>8.174344008624001</v>
       </c>
       <c r="S8">
-        <v>0.007236180639033232</v>
+        <v>0.002080640255869604</v>
       </c>
       <c r="T8">
-        <v>0.005639932339413643</v>
+        <v>0.001681327569284423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H9">
         <v>1.915376</v>
       </c>
       <c r="I9">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J9">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.064042</v>
       </c>
       <c r="O9">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P9">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q9">
-        <v>0.6520880566435554</v>
+        <v>0.6520880566435555</v>
       </c>
       <c r="R9">
         <v>5.868792509792</v>
       </c>
       <c r="S9">
-        <v>0.0026043424534911</v>
+        <v>0.0009958675531098026</v>
       </c>
       <c r="T9">
-        <v>0.003044765455505831</v>
+        <v>0.001207113700464901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H10">
         <v>1.915376</v>
       </c>
       <c r="I10">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J10">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N10">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O10">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P10">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q10">
-        <v>12.10525782988978</v>
+        <v>14.41075740075022</v>
       </c>
       <c r="R10">
-        <v>108.947320469008</v>
+        <v>129.696816606752</v>
       </c>
       <c r="S10">
-        <v>0.04834659453680252</v>
+        <v>0.02200807937659985</v>
       </c>
       <c r="T10">
-        <v>0.05652253632761599</v>
+        <v>0.02667649332830865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H11">
         <v>1.915376</v>
       </c>
       <c r="I11">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J11">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N11">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O11">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P11">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q11">
-        <v>0.217396133688</v>
+        <v>0.284886322424</v>
       </c>
       <c r="R11">
-        <v>1.304376802128</v>
+        <v>1.709317934544</v>
       </c>
       <c r="S11">
-        <v>0.0008682477380473896</v>
+        <v>0.0004350778118635598</v>
       </c>
       <c r="T11">
-        <v>0.0006767186642662983</v>
+        <v>0.0003515784710050276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H12">
         <v>1.915376</v>
       </c>
       <c r="I12">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J12">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N12">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O12">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P12">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q12">
-        <v>1.265113509504</v>
+        <v>21.64805946009778</v>
       </c>
       <c r="R12">
-        <v>11.386021585536</v>
+        <v>194.83253514088</v>
       </c>
       <c r="S12">
-        <v>0.00505267469280975</v>
+        <v>0.0330608723537586</v>
       </c>
       <c r="T12">
-        <v>0.005907137650792911</v>
+        <v>0.04007383496221116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H13">
         <v>1.915376</v>
       </c>
       <c r="I13">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J13">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N13">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O13">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P13">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q13">
-        <v>13.74628856646222</v>
+        <v>6.579316985639112</v>
       </c>
       <c r="R13">
-        <v>123.71659709816</v>
+        <v>59.21385287075201</v>
       </c>
       <c r="S13">
-        <v>0.05490062657464972</v>
+        <v>0.01004791951158785</v>
       </c>
       <c r="T13">
-        <v>0.0641849273915736</v>
+        <v>0.01217931166220954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H14">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I14">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J14">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N14">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O14">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P14">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q14">
-        <v>3.946219770009167</v>
+        <v>5.01562933476</v>
       </c>
       <c r="R14">
-        <v>23.677318620055</v>
+        <v>30.09377600856</v>
       </c>
       <c r="S14">
-        <v>0.01576061326861342</v>
+        <v>0.007659858913262541</v>
       </c>
       <c r="T14">
-        <v>0.01228393774240001</v>
+        <v>0.006189792748345468</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H15">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I15">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J15">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.064042</v>
       </c>
       <c r="O15">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P15">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q15">
-        <v>1.420266877032222</v>
+        <v>2.400656480053333</v>
       </c>
       <c r="R15">
-        <v>12.78240189329</v>
+        <v>21.60590832048</v>
       </c>
       <c r="S15">
-        <v>0.005672334104969066</v>
+        <v>0.003666277691012409</v>
       </c>
       <c r="T15">
-        <v>0.006631588296595118</v>
+        <v>0.004443978535810317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H16">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I16">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J16">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N16">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O16">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P16">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q16">
-        <v>26.36560593092611</v>
+        <v>53.05307739365333</v>
       </c>
       <c r="R16">
-        <v>237.290453378335</v>
+        <v>477.47769654288</v>
       </c>
       <c r="S16">
-        <v>0.1053002982317484</v>
+        <v>0.08102255183281568</v>
       </c>
       <c r="T16">
-        <v>0.1231077388001366</v>
+        <v>0.09820927698528578</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H17">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I17">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J17">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N17">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O17">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P17">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q17">
-        <v>0.4734951433725</v>
+        <v>1.04880650556</v>
       </c>
       <c r="R17">
-        <v>2.840970860235</v>
+        <v>6.292839033359999</v>
       </c>
       <c r="S17">
-        <v>0.001891068991133077</v>
+        <v>0.001601735160974753</v>
       </c>
       <c r="T17">
-        <v>0.001473913061487462</v>
+        <v>0.001294333067545845</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H18">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I18">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J18">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N18">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O18">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P18">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q18">
-        <v>2.75545425948</v>
+        <v>79.69714165746667</v>
       </c>
       <c r="R18">
-        <v>24.79908833532</v>
+        <v>717.2742749172</v>
       </c>
       <c r="S18">
-        <v>0.01100487339632302</v>
+        <v>0.1217133125559616</v>
       </c>
       <c r="T18">
-        <v>0.01286591873293133</v>
+        <v>0.147531473092455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H19">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I19">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J19">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N19">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O19">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P19">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q19">
-        <v>29.93981891581389</v>
+        <v>24.22169796698666</v>
       </c>
       <c r="R19">
-        <v>269.458370242325</v>
+        <v>217.99528170288</v>
       </c>
       <c r="S19">
-        <v>0.1195751718773035</v>
+        <v>0.03699132784413661</v>
       </c>
       <c r="T19">
-        <v>0.1397966508514047</v>
+        <v>0.04483802941426163</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H20">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I20">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J20">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N20">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O20">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P20">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q20">
-        <v>4.624130389387</v>
+        <v>6.98286637424325</v>
       </c>
       <c r="R20">
-        <v>18.496521557548</v>
+        <v>27.931465496973</v>
       </c>
       <c r="S20">
-        <v>0.01846808718679193</v>
+        <v>0.01066421931664292</v>
       </c>
       <c r="T20">
-        <v>0.009596108533650827</v>
+        <v>0.00574504118508251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H21">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I21">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J21">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.064042</v>
       </c>
       <c r="O21">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P21">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q21">
-        <v>1.664250753857333</v>
+        <v>3.342245268105666</v>
       </c>
       <c r="R21">
-        <v>9.985504523144</v>
+        <v>20.053471608634</v>
       </c>
       <c r="S21">
-        <v>0.006646769324122776</v>
+        <v>0.005104270171997024</v>
       </c>
       <c r="T21">
-        <v>0.005180540831378554</v>
+        <v>0.004124667941536061</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H22">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I22">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J22">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N22">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O22">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P22">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q22">
-        <v>30.89488338849267</v>
+        <v>73.86162841317567</v>
       </c>
       <c r="R22">
-        <v>185.369300330956</v>
+        <v>443.169770479054</v>
       </c>
       <c r="S22">
-        <v>0.1233895569541001</v>
+        <v>0.1128013286045233</v>
       </c>
       <c r="T22">
-        <v>0.09617072697957491</v>
+        <v>0.09115270316416615</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H23">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I23">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J23">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N23">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O23">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P23">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q23">
-        <v>0.5548356171990001</v>
+        <v>1.46017083639075</v>
       </c>
       <c r="R23">
-        <v>2.219342468796</v>
+        <v>5.840683345563</v>
       </c>
       <c r="S23">
-        <v>0.002215930713434534</v>
+        <v>0.002229969929894929</v>
       </c>
       <c r="T23">
-        <v>0.00115140844929387</v>
+        <v>0.001201332109585205</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H24">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I24">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J24">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N24">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O24">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P24">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q24">
-        <v>3.228806432592001</v>
+        <v>110.9560642263558</v>
       </c>
       <c r="R24">
-        <v>19.372838595552</v>
+        <v>665.7363853581351</v>
       </c>
       <c r="S24">
-        <v>0.01289537138555657</v>
+        <v>0.1694518754914036</v>
       </c>
       <c r="T24">
-        <v>0.01005074717370054</v>
+        <v>0.1369309803205613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H25">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I25">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J25">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N25">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O25">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P25">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q25">
-        <v>35.08310093460334</v>
+        <v>33.72196567409233</v>
       </c>
       <c r="R25">
-        <v>210.49860560762</v>
+        <v>202.331794044554</v>
       </c>
       <c r="S25">
-        <v>0.1401166732517608</v>
+        <v>0.05150011735342674</v>
       </c>
       <c r="T25">
-        <v>0.1092079642817263</v>
+        <v>0.04161630867394221</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H26">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I26">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J26">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N26">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O26">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P26">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q26">
-        <v>1.044329873217833</v>
+        <v>2.123183788755</v>
       </c>
       <c r="R26">
-        <v>6.265979239307</v>
+        <v>12.73910273253</v>
       </c>
       <c r="S26">
-        <v>0.004170897774557578</v>
+        <v>0.003242521961517263</v>
       </c>
       <c r="T26">
-        <v>0.003250828360506279</v>
+        <v>0.0026202230551531</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H27">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I27">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J27">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.064042</v>
       </c>
       <c r="O27">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P27">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q27">
-        <v>0.375860244505111</v>
+        <v>1.016230383193333</v>
       </c>
       <c r="R27">
-        <v>3.382742200545999</v>
+        <v>9.146073448739998</v>
       </c>
       <c r="S27">
-        <v>0.001501129765177213</v>
+        <v>0.001551984973188641</v>
       </c>
       <c r="T27">
-        <v>0.001754987347042752</v>
+        <v>0.001881196267718044</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H28">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I28">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J28">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N28">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O28">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P28">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q28">
-        <v>6.977409141886556</v>
+        <v>22.45808578499333</v>
       </c>
       <c r="R28">
-        <v>62.79668227697901</v>
+        <v>202.12277206494</v>
       </c>
       <c r="S28">
-        <v>0.02786673158396</v>
+        <v>0.03429794290873919</v>
       </c>
       <c r="T28">
-        <v>0.03257930291423736</v>
+        <v>0.04157331630458013</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H29">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I29">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J29">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N29">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O29">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P29">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q29">
-        <v>0.1253060275065</v>
+        <v>0.443973990405</v>
       </c>
       <c r="R29">
-        <v>0.751836165039</v>
+        <v>2.66384394243</v>
       </c>
       <c r="S29">
-        <v>0.0005004535871938005</v>
+        <v>0.0006780361746614607</v>
       </c>
       <c r="T29">
-        <v>0.0003900572016630827</v>
+        <v>0.0005479087075309897</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H30">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I30">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J30">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N30">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O30">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P30">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q30">
-        <v>0.729205002552</v>
+        <v>33.73687884081667</v>
       </c>
       <c r="R30">
-        <v>6.562845022967999</v>
+        <v>303.63190956735</v>
       </c>
       <c r="S30">
-        <v>0.002912336035135122</v>
+        <v>0.05152289271129992</v>
       </c>
       <c r="T30">
-        <v>0.003404844145099883</v>
+        <v>0.06245206953995008</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H31">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I31">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J31">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N31">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O31">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P31">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q31">
-        <v>7.923290925189444</v>
+        <v>10.25337261332667</v>
       </c>
       <c r="R31">
-        <v>71.30961832670499</v>
+        <v>92.28035351993999</v>
       </c>
       <c r="S31">
-        <v>0.03164444236878752</v>
+        <v>0.01565892978950576</v>
       </c>
       <c r="T31">
-        <v>0.03699586621339796</v>
+        <v>0.01898054477676738</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H32">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I32">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J32">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.8378195</v>
+        <v>2.1338745</v>
       </c>
       <c r="N32">
-        <v>5.675639</v>
+        <v>4.267749</v>
       </c>
       <c r="O32">
-        <v>0.06080381239155241</v>
+        <v>0.03031745650393224</v>
       </c>
       <c r="P32">
-        <v>0.04147740483545635</v>
+        <v>0.02046165915200641</v>
       </c>
       <c r="Q32">
-        <v>2.722802675665</v>
+        <v>1.536068136242</v>
       </c>
       <c r="R32">
-        <v>16.33681605399</v>
+        <v>9.216408817452001</v>
       </c>
       <c r="S32">
-        <v>0.01087446783983909</v>
+        <v>0.002345880131777097</v>
       </c>
       <c r="T32">
-        <v>0.008475640106742293</v>
+        <v>0.00189566309152513</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H33">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I33">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J33">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.064042</v>
       </c>
       <c r="O33">
-        <v>0.02188363694118401</v>
+        <v>0.01451100022693017</v>
       </c>
       <c r="P33">
-        <v>0.02239192987200936</v>
+        <v>0.01469050383034055</v>
       </c>
       <c r="Q33">
-        <v>0.9799521259133332</v>
+        <v>0.7352161970017776</v>
       </c>
       <c r="R33">
-        <v>8.81956913322</v>
+        <v>6.616945773015999</v>
       </c>
       <c r="S33">
-        <v>0.003913782652363461</v>
+        <v>0.001122820679899491</v>
       </c>
       <c r="T33">
-        <v>0.004575646418657506</v>
+        <v>0.001360996471508245</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H34">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I34">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J34">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.96012766666667</v>
+        <v>22.57116733333334</v>
       </c>
       <c r="N34">
-        <v>56.88038300000001</v>
+        <v>67.71350200000001</v>
       </c>
       <c r="O34">
-        <v>0.4062443173584093</v>
+        <v>0.3206844563123603</v>
       </c>
       <c r="P34">
-        <v>0.4156801855943991</v>
+        <v>0.3246513789617676</v>
       </c>
       <c r="Q34">
-        <v>18.19167369233667</v>
+        <v>16.24783975745511</v>
       </c>
       <c r="R34">
-        <v>163.72506323103</v>
+        <v>146.230557817096</v>
       </c>
       <c r="S34">
-        <v>0.07265483183493882</v>
+        <v>0.02481366781330529</v>
       </c>
       <c r="T34">
-        <v>0.08494156436687791</v>
+        <v>0.03007721085267973</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H35">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I35">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J35">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3405015</v>
+        <v>0.4462095</v>
       </c>
       <c r="N35">
-        <v>0.681003</v>
+        <v>0.892419</v>
       </c>
       <c r="O35">
-        <v>0.007295668144165683</v>
+        <v>0.006339612337975524</v>
       </c>
       <c r="P35">
-        <v>0.004976750128956454</v>
+        <v>0.00427868963211623</v>
       </c>
       <c r="Q35">
-        <v>0.326700974205</v>
+        <v>0.321203611102</v>
       </c>
       <c r="R35">
-        <v>1.96020584523</v>
+        <v>1.927221666612</v>
       </c>
       <c r="S35">
-        <v>0.001304794970633958</v>
+        <v>0.0004905415012270838</v>
       </c>
       <c r="T35">
-        <v>0.001016966783759824</v>
+        <v>0.0003963976701712694</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H36">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I36">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J36">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.981512</v>
+        <v>33.90675166666667</v>
       </c>
       <c r="N36">
-        <v>5.944536</v>
+        <v>101.720255</v>
       </c>
       <c r="O36">
-        <v>0.04245635915166902</v>
+        <v>0.4817370791224127</v>
       </c>
       <c r="P36">
-        <v>0.04344249629529721</v>
+        <v>0.4876962508022792</v>
       </c>
       <c r="Q36">
-        <v>1.90120131864</v>
+        <v>24.40775258274889</v>
       </c>
       <c r="R36">
-        <v>17.11081186776</v>
+        <v>219.66977324474</v>
       </c>
       <c r="S36">
-        <v>0.007593114543844401</v>
+        <v>0.03727547007470839</v>
       </c>
       <c r="T36">
-        <v>0.008877193869725226</v>
+        <v>0.04518244467142388</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H37">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I37">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J37">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.53042833333333</v>
+        <v>10.30500066666667</v>
       </c>
       <c r="N37">
-        <v>64.591285</v>
+        <v>30.915002</v>
       </c>
       <c r="O37">
-        <v>0.4613162060130196</v>
+        <v>0.146410395496389</v>
       </c>
       <c r="P37">
-        <v>0.4720312332738815</v>
+        <v>0.1482215176214901</v>
       </c>
       <c r="Q37">
-        <v>20.65780007298333</v>
+        <v>7.418047859899556</v>
       </c>
       <c r="R37">
-        <v>185.92020065685</v>
+        <v>66.762430739096</v>
       </c>
       <c r="S37">
-        <v>0.08250417283015843</v>
+        <v>0.01132882759594488</v>
       </c>
       <c r="T37">
-        <v>0.09645653743869578</v>
+        <v>0.01373192947050672</v>
       </c>
     </row>
   </sheetData>
